--- a/Licenta/wwwroot/UploadSpecializations/Specializations.xlsx
+++ b/Licenta/wwwroot/UploadSpecializations/Specializations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10356" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,15 @@
     <t>FacultyName</t>
   </si>
   <si>
+    <t>Business Administration</t>
+  </si>
+  <si>
+    <t>Ro</t>
+  </si>
+  <si>
     <t>FABIZ</t>
   </si>
   <si>
-    <t>Business Administration</t>
-  </si>
-  <si>
     <t>Entrepreneurship and Business Administration in Energy</t>
   </si>
   <si>
@@ -59,12 +62,12 @@
     <t>Management and Entrepreneurship MBA</t>
   </si>
   <si>
+    <t>Public administration</t>
+  </si>
+  <si>
     <t>FAMP</t>
   </si>
   <si>
-    <t>Public administration</t>
-  </si>
-  <si>
     <t>Human resources</t>
   </si>
   <si>
@@ -77,12 +80,12 @@
     <t>Human resources management in public sector</t>
   </si>
   <si>
+    <t>Romanian - French INDE MBA</t>
+  </si>
+  <si>
     <t>BBS</t>
   </si>
   <si>
-    <t>Romanian - French INDE MBA</t>
-  </si>
-  <si>
     <t>Economic development of the company</t>
   </si>
   <si>
@@ -95,12 +98,12 @@
     <t>Bucharest Business School</t>
   </si>
   <si>
+    <t>Business Administration on Commerce, Tourism, Services, Commodity Science and Quality Management</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
-    <t>Business Administration on Commerce, Tourism, Services, Commodity Science and Quality Management</t>
-  </si>
-  <si>
     <t>Business Administration on Commerce</t>
   </si>
   <si>
@@ -125,12 +128,12 @@
     <t>Quality Management, Expertises and Consumer's Protectio</t>
   </si>
   <si>
+    <t>Economic Informatics</t>
+  </si>
+  <si>
     <t>CSIE</t>
   </si>
   <si>
-    <t>Economic Informatics</t>
-  </si>
-  <si>
     <t>Economic Cybernetics</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>Informatics Systems for the Management of Economic Resources</t>
-  </si>
-  <si>
-    <t>Ro</t>
   </si>
 </sst>
 </file>
@@ -482,18 +482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="86.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -514,7 +507,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -523,32 +516,32 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -557,15 +550,15 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -574,15 +567,15 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -591,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -608,32 +601,32 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -642,15 +635,15 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -659,15 +652,15 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -676,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -693,32 +686,32 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -727,15 +720,15 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -744,15 +737,15 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -761,15 +754,15 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -778,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,32 +788,32 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -829,15 +822,15 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -846,15 +839,15 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -863,15 +856,15 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -880,15 +873,15 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -897,15 +890,15 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -914,15 +907,15 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -931,10 +924,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,32 +941,32 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
         <v>35</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -982,15 +975,15 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -999,15 +992,15 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -1016,15 +1009,15 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
@@ -1033,15 +1026,15 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -1050,15 +1043,15 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
@@ -1067,15 +1060,15 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -1084,15 +1077,15 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -1101,15 +1094,15 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -1118,14 +1111,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>